--- a/trunk/OSAMS/fileupload/sample.xlsx
+++ b/trunk/OSAMS/fileupload/sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="19035" windowHeight="11760"/>
@@ -12,12 +12,12 @@
     <sheet name="bbb" sheetId="3" r:id="rId3"/>
     <sheet name="ccc" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>StudentID</t>
   </si>
@@ -50,13 +50,67 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>BP138</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Ly</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Tran Dang</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
+    <t>Hong</t>
+  </si>
+  <si>
+    <t>Truong</t>
+  </si>
+  <si>
+    <t>Duc Hai</t>
+  </si>
+  <si>
+    <t>Duong</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Sy Nhat</t>
+  </si>
+  <si>
+    <t>Vo</t>
+  </si>
+  <si>
+    <t>Ngoc</t>
+  </si>
+  <si>
+    <t>Diep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,7 +720,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -701,7 +754,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -877,16 +929,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -919,6 +971,162 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>9220658</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>9220670</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>9220677</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>9231181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>9231753</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>9246051</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -928,38 +1136,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
